--- a/public/template/ImportQuestionTemplate.xlsx
+++ b/public/template/ImportQuestionTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15980"/>
+    <workbookView windowWidth="25600" windowHeight="10600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,22 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
   <si>
     <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>填写须知： 
 1.</t>
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <charset val="134"/>
@@ -52,7 +45,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
@@ -63,7 +56,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <charset val="134"/>
@@ -73,7 +66,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
@@ -83,7 +76,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <charset val="134"/>
@@ -93,7 +86,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
@@ -104,7 +97,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <charset val="134"/>
@@ -114,7 +107,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
@@ -124,7 +117,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <charset val="134"/>
@@ -134,7 +127,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
@@ -144,7 +137,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <charset val="134"/>
@@ -154,7 +147,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
@@ -165,7 +158,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <charset val="134"/>
@@ -175,7 +168,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
@@ -185,7 +178,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <charset val="134"/>
@@ -195,14 +188,15 @@
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-5.添加用户时请先删除第3-6行的示例数据，填写须知（本栏）不需要删除；</t>
+5.添加用户时请先删除第3-6行的示例数据，填写须知（本栏）不需要删除；
+6.题干图片和选项图片填写链接，不能直接把图片插入到单元格或工作表中</t>
     </r>
   </si>
   <si>
@@ -212,45 +206,66 @@
     <t>题干</t>
   </si>
   <si>
+    <t>选项一内容</t>
+  </si>
+  <si>
+    <t>选项二内容</t>
+  </si>
+  <si>
+    <t>选项三内容</t>
+  </si>
+  <si>
+    <t>选项四内容</t>
+  </si>
+  <si>
+    <t>选项五内容</t>
+  </si>
+  <si>
+    <t>选项六内容</t>
+  </si>
+  <si>
     <t>解析</t>
   </si>
   <si>
-    <t>选项一内容</t>
-  </si>
-  <si>
     <t>选项一是否正确</t>
   </si>
   <si>
-    <t>选项二内容</t>
-  </si>
-  <si>
     <t>选项二是否正确</t>
   </si>
   <si>
-    <t>选项三内容</t>
-  </si>
-  <si>
     <t>选项三是否正确</t>
   </si>
   <si>
-    <t>选项四内容</t>
-  </si>
-  <si>
     <t>选项四是否正确</t>
   </si>
   <si>
-    <t>选项五内容</t>
-  </si>
-  <si>
     <t>选项五是否正确</t>
   </si>
   <si>
-    <t>选项六内容</t>
-  </si>
-  <si>
     <t>选项六是否正确</t>
   </si>
   <si>
+    <t>题干图片</t>
+  </si>
+  <si>
+    <t>选项一图片</t>
+  </si>
+  <si>
+    <t>选项二图片</t>
+  </si>
+  <si>
+    <t>选项三图片</t>
+  </si>
+  <si>
+    <t>选项四图片</t>
+  </si>
+  <si>
+    <t>选项五图片</t>
+  </si>
+  <si>
+    <t>选项六图片</t>
+  </si>
+  <si>
     <t>测试单选题1</t>
   </si>
   <si>
@@ -264,6 +279,12 @@
   </si>
   <si>
     <t>选项3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://online-exam-wenzhi.oss-cn-shenzhen.aliyuncs.com/da93c2a6-6879-46c3-b38f-a99956f70d22.jpg</t>
   </si>
   <si>
     <t>测试单选题2</t>
@@ -336,7 +357,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -487,7 +508,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -942,15 +963,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1270,30 +1296,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O291"/>
+  <dimension ref="A1:V291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A1" sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="20.0803571428571" customWidth="1"/>
-    <col min="4" max="4" width="13.4107142857143" customWidth="1"/>
-    <col min="5" max="5" width="17.6607142857143" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="15.3303571428571" customWidth="1"/>
-    <col min="10" max="10" width="11.9107142857143" customWidth="1"/>
-    <col min="11" max="11" width="13.5803571428571" customWidth="1"/>
+    <col min="1" max="1" width="9.3716814159292" customWidth="1"/>
+    <col min="3" max="3" width="20.0796460176991" customWidth="1"/>
+    <col min="4" max="4" width="13.4070796460177" customWidth="1"/>
+    <col min="5" max="5" width="17.6637168141593" customWidth="1"/>
+    <col min="6" max="6" width="15.5044247787611" customWidth="1"/>
+    <col min="7" max="7" width="15.7522123893805" customWidth="1"/>
+    <col min="8" max="8" width="11.4955752212389" customWidth="1"/>
+    <col min="9" max="9" width="15.3274336283186" customWidth="1"/>
+    <col min="10" max="10" width="11.9115044247788" customWidth="1"/>
+    <col min="11" max="11" width="13.5840707964602" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="15.5" customWidth="1"/>
-    <col min="14" max="14" width="11.25" customWidth="1"/>
+    <col min="13" max="13" width="15.5044247787611" customWidth="1"/>
+    <col min="14" max="14" width="11.2477876106195" customWidth="1"/>
     <col min="15" max="15" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="194.5" customHeight="1" spans="1:15">
+    <row r="1" ht="130" customHeight="1" spans="1:22">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1311,362 +1338,461 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="P2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
+    <row r="3" spans="1:22">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="4">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3">
+      <c r="H3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="4">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3">
+      <c r="J3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="4">
         <v>0</v>
       </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
+    <row r="4" spans="1:22">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4">
+      <c r="H4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4">
+      <c r="J4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="4">
         <v>0</v>
       </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5">
+    <row r="5" spans="1:22">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5">
+      <c r="H5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="4">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5">
+      <c r="J5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="4">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M5">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="4">
         <v>0</v>
       </c>
+      <c r="J6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:22">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="4">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
+    <row r="9" spans="1:22">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
+    <row r="10" spans="1:22">
+      <c r="A10" s="4">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1"/>
-    <row r="12" customFormat="1"/>
-    <row r="13" customFormat="1"/>
-    <row r="14" customFormat="1"/>
-    <row r="15" customFormat="1"/>
-    <row r="16" customFormat="1"/>
-    <row r="17" customFormat="1"/>
-    <row r="18" customFormat="1"/>
-    <row r="19" customFormat="1"/>
-    <row r="20" customFormat="1"/>
-    <row r="21" customFormat="1"/>
-    <row r="22" customFormat="1"/>
-    <row r="23" customFormat="1"/>
-    <row r="24" customFormat="1"/>
-    <row r="25" customFormat="1"/>
-    <row r="26" customFormat="1"/>
-    <row r="27" customFormat="1"/>
-    <row r="28" customFormat="1"/>
-    <row r="29" customFormat="1"/>
-    <row r="30" customFormat="1"/>
-    <row r="31" customFormat="1"/>
-    <row r="32" customFormat="1"/>
-    <row r="33" customFormat="1"/>
-    <row r="34" customFormat="1"/>
-    <row r="35" customFormat="1"/>
-    <row r="36" customFormat="1"/>
-    <row r="37" customFormat="1"/>
-    <row r="38" customFormat="1"/>
-    <row r="39" customFormat="1"/>
-    <row r="40" customFormat="1"/>
-    <row r="41" customFormat="1"/>
-    <row r="42" customFormat="1"/>
-    <row r="43" customFormat="1"/>
-    <row r="44" customFormat="1"/>
-    <row r="45" customFormat="1"/>
-    <row r="46" customFormat="1"/>
-    <row r="47" customFormat="1"/>
-    <row r="48" customFormat="1"/>
-    <row r="49" customFormat="1"/>
-    <row r="50" customFormat="1"/>
-    <row r="51" customFormat="1"/>
-    <row r="52" customFormat="1"/>
-    <row r="53" customFormat="1"/>
-    <row r="54" customFormat="1"/>
-    <row r="55" customFormat="1"/>
-    <row r="56" customFormat="1"/>
-    <row r="57" customFormat="1"/>
-    <row r="58" customFormat="1"/>
-    <row r="59" customFormat="1"/>
-    <row r="60" customFormat="1"/>
-    <row r="61" customFormat="1"/>
-    <row r="62" customFormat="1"/>
-    <row r="63" customFormat="1"/>
-    <row r="64" customFormat="1"/>
-    <row r="65" customFormat="1"/>
-    <row r="66" customFormat="1"/>
-    <row r="67" customFormat="1"/>
-    <row r="68" customFormat="1"/>
-    <row r="69" customFormat="1"/>
-    <row r="70" customFormat="1"/>
-    <row r="71" customFormat="1"/>
-    <row r="72" customFormat="1"/>
-    <row r="73" customFormat="1"/>
-    <row r="74" customFormat="1"/>
-    <row r="75" customFormat="1"/>
-    <row r="76" customFormat="1"/>
-    <row r="77" customFormat="1"/>
-    <row r="78" customFormat="1"/>
-    <row r="79" customFormat="1"/>
-    <row r="80" customFormat="1"/>
-    <row r="81" customFormat="1"/>
-    <row r="82" customFormat="1"/>
-    <row r="83" customFormat="1"/>
-    <row r="84" customFormat="1"/>
-    <row r="85" customFormat="1"/>
-    <row r="86" customFormat="1"/>
-    <row r="87" customFormat="1"/>
-    <row r="88" customFormat="1"/>
-    <row r="89" customFormat="1"/>
-    <row r="90" customFormat="1"/>
-    <row r="91" customFormat="1"/>
-    <row r="92" customFormat="1"/>
-    <row r="93" customFormat="1"/>
-    <row r="94" customFormat="1"/>
-    <row r="95" customFormat="1"/>
-    <row r="96" customFormat="1"/>
-    <row r="97" customFormat="1"/>
-    <row r="98" customFormat="1" ht="15" customHeight="1"/>
+    <row r="98" ht="15" customHeight="1"/>
     <row r="99" s="1" customFormat="1"/>
     <row r="100" s="1" customFormat="1"/>
     <row r="101" s="1" customFormat="1"/>
